--- a/assets/3/db.xlsx
+++ b/assets/3/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -172,6 +172,24 @@
   </si>
   <si>
     <t>Я не буду подавать сигнал рукой о повороте</t>
+  </si>
+  <si>
+    <t>Определите, кто проедет перекресток вторым</t>
+  </si>
+  <si>
+    <t>Определите, на каких картинках пешеходы не нарушают ПДД</t>
+  </si>
+  <si>
+    <t>А, Г, Д</t>
+  </si>
+  <si>
+    <t>В, Д, Е</t>
+  </si>
+  <si>
+    <t>А, В, Д</t>
+  </si>
+  <si>
+    <t>А, В, Г</t>
   </si>
 </sst>
 </file>
@@ -227,8 +245,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G19" totalsRowShown="0">
-  <autoFilter ref="A1:G19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G21" totalsRowShown="0">
+  <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
     <tableColumn id="1" name="№"/>
     <tableColumn id="2" name="ответ"/>
@@ -505,23 +523,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="69.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -561,7 +579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -578,7 +596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -595,7 +613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -612,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -629,7 +647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -646,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -663,7 +681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -680,7 +698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -697,7 +715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -714,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -734,7 +752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -754,7 +772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -777,7 +795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -800,7 +818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -823,7 +841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -846,7 +864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -863,7 +881,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -878,6 +896,49 @@
       </c>
       <c r="F19" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
